--- a/xlsx/聯合國安全理事會否決權_intext.xlsx
+++ b/xlsx/聯合國安全理事會否決權_intext.xlsx
@@ -29,7 +29,7 @@
     <t>聯合國安全理事會常任理事國</t>
   </si>
   <si>
-    <t>政策_政策_美國_聯合國安全理事會否決權</t>
+    <t>体育运动_体育运动_南非_聯合國安全理事會否決權</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
